--- a/data_capture/excels/VVEO3_SA_dados.xlsx
+++ b/data_capture/excels/VVEO3_SA_dados.xlsx
@@ -1021,7 +1021,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H941"/>
+  <dimension ref="A1:H943"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1058,16 +1058,16 @@
         <v>44417</v>
       </c>
       <c r="B2">
-        <v>20.93998366319176</v>
+        <v>20.93998169459794</v>
       </c>
       <c r="C2">
-        <v>21.38670279710337</v>
+        <v>21.38670078651293</v>
       </c>
       <c r="D2">
-        <v>20.00931776217502</v>
+        <v>20.00931588107425</v>
       </c>
       <c r="E2">
-        <v>20.28851699829102</v>
+        <v>20.28851509094238</v>
       </c>
       <c r="F2">
         <v>5916660</v>
@@ -1084,16 +1084,16 @@
         <v>44418</v>
       </c>
       <c r="B3">
-        <v>20.70731582358658</v>
+        <v>20.70731772665865</v>
       </c>
       <c r="C3">
-        <v>21.11680910436368</v>
+        <v>21.11681104506957</v>
       </c>
       <c r="D3">
-        <v>20.47464979381439</v>
+        <v>20.47465167550367</v>
       </c>
       <c r="E3">
-        <v>20.75384902954102</v>
+        <v>20.75385093688965</v>
       </c>
       <c r="F3">
         <v>674091</v>
@@ -1110,16 +1110,16 @@
         <v>44419</v>
       </c>
       <c r="B4">
-        <v>20.85622250808057</v>
+        <v>20.85622436650156</v>
       </c>
       <c r="C4">
-        <v>21.87064745231511</v>
+        <v>21.87064940112776</v>
       </c>
       <c r="D4">
-        <v>20.56771592287853</v>
+        <v>20.56771775559177</v>
       </c>
       <c r="E4">
-        <v>21.40531539916992</v>
+        <v>21.40531730651855</v>
       </c>
       <c r="F4">
         <v>135921</v>
@@ -1188,16 +1188,16 @@
         <v>44424</v>
       </c>
       <c r="B7">
-        <v>22.99675537760747</v>
+        <v>22.99675733811434</v>
       </c>
       <c r="C7">
-        <v>23.47139300515408</v>
+        <v>23.47139500612449</v>
       </c>
       <c r="D7">
-        <v>22.18707439707249</v>
+        <v>22.18707628855288</v>
       </c>
       <c r="E7">
-        <v>22.37320899963379</v>
+        <v>22.37321090698242</v>
       </c>
       <c r="F7">
         <v>198917</v>
@@ -1266,16 +1266,16 @@
         <v>44427</v>
       </c>
       <c r="B10">
-        <v>20.9679061870648</v>
+        <v>20.96790434669784</v>
       </c>
       <c r="C10">
-        <v>21.73105049133301</v>
+        <v>21.73104858398438</v>
       </c>
       <c r="D10">
-        <v>20.52118522471183</v>
+        <v>20.52118342355386</v>
       </c>
       <c r="E10">
-        <v>21.73105049133301</v>
+        <v>21.73104858398438</v>
       </c>
       <c r="F10">
         <v>312670</v>
@@ -1396,16 +1396,16 @@
         <v>44434</v>
       </c>
       <c r="B15">
-        <v>21.87064690256075</v>
+        <v>21.8706487395562</v>
       </c>
       <c r="C15">
-        <v>23.45277940474503</v>
+        <v>23.45278137462956</v>
       </c>
       <c r="D15">
-        <v>21.87064690256075</v>
+        <v>21.8706487395562</v>
       </c>
       <c r="E15">
-        <v>22.70824813842773</v>
+        <v>22.70825004577637</v>
       </c>
       <c r="F15">
         <v>121777</v>
@@ -1422,16 +1422,16 @@
         <v>44435</v>
       </c>
       <c r="B16">
-        <v>22.80131504813918</v>
+        <v>22.80131322701524</v>
       </c>
       <c r="C16">
-        <v>24.88600743211045</v>
+        <v>24.88600544448368</v>
       </c>
       <c r="D16">
-        <v>22.79200947475688</v>
+        <v>22.79200765437617</v>
       </c>
       <c r="E16">
-        <v>23.88088798522949</v>
+        <v>23.88088607788086</v>
       </c>
       <c r="F16">
         <v>182566</v>
@@ -1474,16 +1474,16 @@
         <v>44439</v>
       </c>
       <c r="B18">
-        <v>24.65334060258663</v>
+        <v>24.65334246425443</v>
       </c>
       <c r="C18">
-        <v>25.77013935888268</v>
+        <v>25.77014130488422</v>
       </c>
       <c r="D18">
-        <v>24.29968787083307</v>
+        <v>24.2996897057952</v>
       </c>
       <c r="E18">
-        <v>25.25827407836914</v>
+        <v>25.25827598571777</v>
       </c>
       <c r="F18">
         <v>445081</v>
@@ -1500,16 +1500,16 @@
         <v>44440</v>
       </c>
       <c r="B19">
-        <v>25.75152610846801</v>
+        <v>25.75152811822949</v>
       </c>
       <c r="C19">
-        <v>25.96557921557338</v>
+        <v>25.96558124204051</v>
       </c>
       <c r="D19">
-        <v>24.43928718566895</v>
+        <v>24.43928909301758</v>
       </c>
       <c r="E19">
-        <v>24.43928718566895</v>
+        <v>24.43928909301758</v>
       </c>
       <c r="F19">
         <v>189588</v>
@@ -1526,16 +1526,16 @@
         <v>44441</v>
       </c>
       <c r="B20">
-        <v>24.38344746292039</v>
+        <v>24.38344550551598</v>
       </c>
       <c r="C20">
-        <v>24.8860071812958</v>
+        <v>24.88600518354793</v>
       </c>
       <c r="D20">
-        <v>23.15496933842284</v>
+        <v>23.15496747963568</v>
       </c>
       <c r="E20">
-        <v>23.75990104675293</v>
+        <v>23.7598991394043</v>
       </c>
       <c r="F20">
         <v>108436</v>
@@ -1552,16 +1552,16 @@
         <v>44442</v>
       </c>
       <c r="B21">
-        <v>23.72267314012662</v>
+        <v>23.7226749817296</v>
       </c>
       <c r="C21">
-        <v>24.66264636002152</v>
+        <v>24.66264827459509</v>
       </c>
       <c r="D21">
-        <v>22.59656710300145</v>
+        <v>22.59656885718425</v>
       </c>
       <c r="E21">
-        <v>24.56957817077637</v>
+        <v>24.569580078125</v>
       </c>
       <c r="F21">
         <v>46544</v>
@@ -1578,16 +1578,16 @@
         <v>44445</v>
       </c>
       <c r="B22">
-        <v>24.67195510864258</v>
+        <v>24.67195320129395</v>
       </c>
       <c r="C22">
-        <v>24.89531558645117</v>
+        <v>24.8953136618349</v>
       </c>
       <c r="D22">
-        <v>24.20662122503225</v>
+        <v>24.20661935365782</v>
       </c>
       <c r="E22">
-        <v>24.67195510864258</v>
+        <v>24.67195320129395</v>
       </c>
       <c r="F22">
         <v>8024</v>
@@ -1630,16 +1630,16 @@
         <v>44448</v>
       </c>
       <c r="B24">
-        <v>22.89438489580955</v>
+        <v>22.89438309046983</v>
       </c>
       <c r="C24">
-        <v>24.23454247423954</v>
+        <v>24.23454056322152</v>
       </c>
       <c r="D24">
-        <v>22.89438489580955</v>
+        <v>22.89438309046983</v>
       </c>
       <c r="E24">
-        <v>24.18800926208496</v>
+        <v>24.18800735473633</v>
       </c>
       <c r="F24">
         <v>21767</v>
@@ -1656,16 +1656,16 @@
         <v>44449</v>
       </c>
       <c r="B25">
-        <v>24.19731479633633</v>
+        <v>24.19731676423574</v>
       </c>
       <c r="C25">
-        <v>24.19731479633633</v>
+        <v>24.19731676423574</v>
       </c>
       <c r="D25">
-        <v>22.75478176680961</v>
+        <v>22.75478361739188</v>
       </c>
       <c r="E25">
-        <v>23.45278167724609</v>
+        <v>23.45278358459473</v>
       </c>
       <c r="F25">
         <v>85665</v>
@@ -1682,16 +1682,16 @@
         <v>44452</v>
       </c>
       <c r="B26">
-        <v>23.45277940474503</v>
+        <v>23.45278137462956</v>
       </c>
       <c r="C26">
-        <v>23.82504681853369</v>
+        <v>23.82504881968632</v>
       </c>
       <c r="D26">
-        <v>22.70824813842773</v>
+        <v>22.70825004577637</v>
       </c>
       <c r="E26">
-        <v>22.70824813842773</v>
+        <v>22.70825004577637</v>
       </c>
       <c r="F26">
         <v>77540</v>
@@ -1708,16 +1708,16 @@
         <v>44453</v>
       </c>
       <c r="B27">
-        <v>22.615182019395</v>
+        <v>22.61518008739949</v>
       </c>
       <c r="C27">
-        <v>22.615182019395</v>
+        <v>22.61518008739949</v>
       </c>
       <c r="D27">
-        <v>21.77758426812571</v>
+        <v>21.77758240768546</v>
       </c>
       <c r="E27">
-        <v>22.32667541503906</v>
+        <v>22.32667350769043</v>
       </c>
       <c r="F27">
         <v>285485</v>
@@ -1734,16 +1734,16 @@
         <v>44454</v>
       </c>
       <c r="B28">
-        <v>22.81062156857609</v>
+        <v>22.81062352870666</v>
       </c>
       <c r="C28">
-        <v>23.4900085290155</v>
+        <v>23.4900105475262</v>
       </c>
       <c r="D28">
-        <v>21.88926299958647</v>
+        <v>21.88926488054413</v>
       </c>
       <c r="E28">
-        <v>22.19638252258301</v>
+        <v>22.19638442993164</v>
       </c>
       <c r="F28">
         <v>355503</v>
@@ -1786,16 +1786,16 @@
         <v>44456</v>
       </c>
       <c r="B30">
-        <v>23.08051580032744</v>
+        <v>23.08051389143927</v>
       </c>
       <c r="C30">
-        <v>23.71336778844984</v>
+        <v>23.71336582722125</v>
       </c>
       <c r="D30">
-        <v>21.82411739735156</v>
+        <v>21.82411559237458</v>
       </c>
       <c r="E30">
-        <v>23.0619010925293</v>
+        <v>23.06189918518066</v>
       </c>
       <c r="F30">
         <v>261310</v>
@@ -1812,16 +1812,16 @@
         <v>44459</v>
       </c>
       <c r="B31">
-        <v>22.33598009978986</v>
+        <v>22.33598384734353</v>
       </c>
       <c r="C31">
-        <v>22.94091351737966</v>
+        <v>22.94091736642968</v>
       </c>
       <c r="D31">
-        <v>21.87064629072926</v>
+        <v>21.87064996020874</v>
       </c>
       <c r="E31">
-        <v>22.73616600036621</v>
+        <v>22.73616981506348</v>
       </c>
       <c r="F31">
         <v>40224</v>
@@ -1838,16 +1838,16 @@
         <v>44460</v>
       </c>
       <c r="B32">
-        <v>23.23872629932582</v>
+        <v>23.23872821203644</v>
       </c>
       <c r="C32">
-        <v>23.23872629932582</v>
+        <v>23.23872821203644</v>
       </c>
       <c r="D32">
-        <v>22.53142088438366</v>
+        <v>22.53142273887807</v>
       </c>
       <c r="E32">
-        <v>23.17358016967773</v>
+        <v>23.17358207702637</v>
       </c>
       <c r="F32">
         <v>26281</v>
@@ -1890,16 +1890,16 @@
         <v>44462</v>
       </c>
       <c r="B34">
-        <v>22.4290491857796</v>
+        <v>22.42904726968526</v>
       </c>
       <c r="C34">
-        <v>22.65240965449619</v>
+        <v>22.65240771932035</v>
       </c>
       <c r="D34">
-        <v>22.07539644578431</v>
+        <v>22.07539455990222</v>
       </c>
       <c r="E34">
-        <v>22.32667541503906</v>
+        <v>22.32667350769043</v>
       </c>
       <c r="F34">
         <v>99609</v>
@@ -1942,16 +1942,16 @@
         <v>44466</v>
       </c>
       <c r="B36">
-        <v>22.33598128609035</v>
+        <v>22.33598327636719</v>
       </c>
       <c r="C36">
-        <v>22.6058749452926</v>
+        <v>22.60587695961866</v>
       </c>
       <c r="D36">
-        <v>20.72592846482188</v>
+        <v>20.72593031163285</v>
       </c>
       <c r="E36">
-        <v>21.40531539916992</v>
+        <v>21.40531730651855</v>
       </c>
       <c r="F36">
         <v>259404</v>
@@ -2072,16 +2072,16 @@
         <v>44473</v>
       </c>
       <c r="B41">
-        <v>20.47465207026693</v>
+        <v>20.47465010852456</v>
       </c>
       <c r="C41">
-        <v>20.66078491477966</v>
+        <v>20.66078293520331</v>
       </c>
       <c r="D41">
-        <v>19.75803919438868</v>
+        <v>19.7580373013073</v>
       </c>
       <c r="E41">
-        <v>19.90694618225098</v>
+        <v>19.90694427490234</v>
       </c>
       <c r="F41">
         <v>25880</v>
@@ -2150,16 +2150,16 @@
         <v>44476</v>
       </c>
       <c r="B44">
-        <v>20.45603976036106</v>
+        <v>20.45603781675777</v>
       </c>
       <c r="C44">
-        <v>20.73523903557081</v>
+        <v>20.73523706543977</v>
       </c>
       <c r="D44">
-        <v>19.59051987045443</v>
+        <v>19.59051800908736</v>
       </c>
       <c r="E44">
-        <v>20.07446670532227</v>
+        <v>20.07446479797363</v>
       </c>
       <c r="F44">
         <v>58782</v>
@@ -2176,16 +2176,16 @@
         <v>44477</v>
       </c>
       <c r="B45">
-        <v>20.84691728819231</v>
+        <v>20.84691338283521</v>
       </c>
       <c r="C45">
-        <v>22.31737064400012</v>
+        <v>22.31736646317565</v>
       </c>
       <c r="D45">
-        <v>19.76734610216257</v>
+        <v>19.76734239904692</v>
       </c>
       <c r="E45">
-        <v>20.36297225952148</v>
+        <v>20.36296844482422</v>
       </c>
       <c r="F45">
         <v>58682</v>
@@ -2306,16 +2306,16 @@
         <v>44487</v>
       </c>
       <c r="B50">
-        <v>20.42811455003588</v>
+        <v>20.42811651559004</v>
       </c>
       <c r="C50">
-        <v>20.58632707837232</v>
+        <v>20.58632905914939</v>
       </c>
       <c r="D50">
-        <v>19.82318115234375</v>
+        <v>19.82318305969238</v>
       </c>
       <c r="E50">
-        <v>19.82318115234375</v>
+        <v>19.82318305969238</v>
       </c>
       <c r="F50">
         <v>109138</v>
@@ -2358,16 +2358,16 @@
         <v>44489</v>
       </c>
       <c r="B52">
-        <v>19.62774200194401</v>
+        <v>19.62774389226268</v>
       </c>
       <c r="C52">
-        <v>19.90694300477836</v>
+        <v>19.90694492198646</v>
       </c>
       <c r="D52">
-        <v>19.44160918714111</v>
+        <v>19.4416110595336</v>
       </c>
       <c r="E52">
-        <v>19.80456924438477</v>
+        <v>19.8045711517334</v>
       </c>
       <c r="F52">
         <v>15046</v>
@@ -2410,16 +2410,16 @@
         <v>44491</v>
       </c>
       <c r="B54">
-        <v>19.42299761253919</v>
+        <v>19.4229994588456</v>
       </c>
       <c r="C54">
-        <v>20.06515693664551</v>
+        <v>20.06515884399414</v>
       </c>
       <c r="D54">
-        <v>17.9246258562911</v>
+        <v>17.92462756016567</v>
       </c>
       <c r="E54">
-        <v>20.06515693664551</v>
+        <v>20.06515884399414</v>
       </c>
       <c r="F54">
         <v>84261</v>
@@ -2488,16 +2488,16 @@
         <v>44496</v>
       </c>
       <c r="B57">
-        <v>19.70219746430858</v>
+        <v>19.702195493661</v>
       </c>
       <c r="C57">
-        <v>19.70219746430858</v>
+        <v>19.702195493661</v>
       </c>
       <c r="D57">
-        <v>19.05073076638786</v>
+        <v>19.05072886090111</v>
       </c>
       <c r="E57">
-        <v>19.06934547424316</v>
+        <v>19.06934356689453</v>
       </c>
       <c r="F57">
         <v>78443</v>
@@ -2514,16 +2514,16 @@
         <v>44497</v>
       </c>
       <c r="B58">
-        <v>18.84598198158404</v>
+        <v>18.84598388423478</v>
       </c>
       <c r="C58">
-        <v>19.51606149920746</v>
+        <v>19.51606346950802</v>
       </c>
       <c r="D58">
-        <v>18.5202495752065</v>
+        <v>18.52025144497198</v>
       </c>
       <c r="E58">
-        <v>18.89251518249512</v>
+        <v>18.89251708984375</v>
       </c>
       <c r="F58">
         <v>86167</v>
@@ -2540,16 +2540,16 @@
         <v>44498</v>
       </c>
       <c r="B59">
-        <v>19.07865187513512</v>
+        <v>19.07864992497824</v>
       </c>
       <c r="C59">
-        <v>19.07865187513512</v>
+        <v>19.07864992497824</v>
       </c>
       <c r="D59">
-        <v>17.83156076813305</v>
+        <v>17.83155894544971</v>
       </c>
       <c r="E59">
-        <v>18.65985298156738</v>
+        <v>18.65985107421875</v>
       </c>
       <c r="F59">
         <v>139232</v>
@@ -2592,16 +2592,16 @@
         <v>44503</v>
       </c>
       <c r="B61">
-        <v>19.07865149158187</v>
+        <v>19.07864953654961</v>
       </c>
       <c r="C61">
-        <v>19.24617318239744</v>
+        <v>19.24617121019886</v>
       </c>
       <c r="D61">
-        <v>18.48302534210395</v>
+        <v>18.48302344810684</v>
       </c>
       <c r="E61">
-        <v>18.61331939697266</v>
+        <v>18.61331748962402</v>
       </c>
       <c r="F61">
         <v>253787</v>
@@ -2618,16 +2618,16 @@
         <v>44504</v>
       </c>
       <c r="B62">
-        <v>18.87390572607986</v>
+        <v>18.87390379202836</v>
       </c>
       <c r="C62">
-        <v>19.45091894789945</v>
+        <v>19.45091695472011</v>
       </c>
       <c r="D62">
-        <v>17.78502720019014</v>
+        <v>17.78502537771847</v>
       </c>
       <c r="E62">
-        <v>18.61331939697266</v>
+        <v>18.61331748962402</v>
       </c>
       <c r="F62">
         <v>241048</v>
@@ -2644,16 +2644,16 @@
         <v>44505</v>
       </c>
       <c r="B63">
-        <v>18.8087572767315</v>
+        <v>18.80875920893784</v>
       </c>
       <c r="C63">
-        <v>19.53467739183812</v>
+        <v>19.53467939861756</v>
       </c>
       <c r="D63">
-        <v>18.5667839050293</v>
+        <v>18.56678581237793</v>
       </c>
       <c r="E63">
-        <v>18.5667839050293</v>
+        <v>18.56678581237793</v>
       </c>
       <c r="F63">
         <v>297723</v>
@@ -2722,16 +2722,16 @@
         <v>44510</v>
       </c>
       <c r="B66">
-        <v>18.43649014398119</v>
+        <v>18.43649213264303</v>
       </c>
       <c r="C66">
-        <v>18.60401003609692</v>
+        <v>18.60401204282839</v>
       </c>
       <c r="D66">
-        <v>17.68265151977539</v>
+        <v>17.68265342712402</v>
       </c>
       <c r="E66">
-        <v>17.68265151977539</v>
+        <v>17.68265342712402</v>
       </c>
       <c r="F66">
         <v>40826</v>
@@ -2748,16 +2748,16 @@
         <v>44511</v>
       </c>
       <c r="B67">
-        <v>17.71057484009658</v>
+        <v>17.71057286744188</v>
       </c>
       <c r="C67">
-        <v>18.10145524903793</v>
+        <v>18.10145323284583</v>
       </c>
       <c r="D67">
-        <v>17.12425422668457</v>
+        <v>17.12425231933594</v>
       </c>
       <c r="E67">
-        <v>17.12425422668457</v>
+        <v>17.12425231933594</v>
       </c>
       <c r="F67">
         <v>55672</v>
@@ -2774,16 +2774,16 @@
         <v>44512</v>
       </c>
       <c r="B68">
-        <v>17.95254711037549</v>
+        <v>17.95254527073768</v>
       </c>
       <c r="C68">
-        <v>18.92043893554078</v>
+        <v>18.92043699672092</v>
       </c>
       <c r="D68">
-        <v>17.19870662422628</v>
+        <v>17.19870486183619</v>
       </c>
       <c r="E68">
-        <v>18.61331939697266</v>
+        <v>18.61331748962402</v>
       </c>
       <c r="F68">
         <v>360719</v>
@@ -2826,16 +2826,16 @@
         <v>44517</v>
       </c>
       <c r="B70">
-        <v>18.07353049033418</v>
+        <v>18.07353231499984</v>
       </c>
       <c r="C70">
-        <v>19.54398177588009</v>
+        <v>19.54398374899942</v>
       </c>
       <c r="D70">
-        <v>17.45928974542612</v>
+        <v>17.45929150807932</v>
       </c>
       <c r="E70">
-        <v>18.89251518249512</v>
+        <v>18.89251708984375</v>
       </c>
       <c r="F70">
         <v>290300</v>
@@ -2852,16 +2852,16 @@
         <v>44518</v>
       </c>
       <c r="B71">
-        <v>18.73430657015023</v>
+        <v>18.73430467504027</v>
       </c>
       <c r="C71">
-        <v>20.05585295730233</v>
+        <v>20.05585092850844</v>
       </c>
       <c r="D71">
-        <v>18.66916043138809</v>
+        <v>18.66915854286813</v>
       </c>
       <c r="E71">
-        <v>18.85529327392578</v>
+        <v>18.85529136657715</v>
       </c>
       <c r="F71">
         <v>235129</v>
@@ -2878,16 +2878,16 @@
         <v>44519</v>
       </c>
       <c r="B72">
-        <v>19.08795915097845</v>
+        <v>19.08795725104061</v>
       </c>
       <c r="C72">
-        <v>19.88833107875782</v>
+        <v>19.88832909915422</v>
       </c>
       <c r="D72">
-        <v>18.98558715690544</v>
+        <v>18.98558526715729</v>
       </c>
       <c r="E72">
-        <v>19.16241264343262</v>
+        <v>19.16241073608398</v>
       </c>
       <c r="F72">
         <v>235129</v>
@@ -2956,16 +2956,16 @@
         <v>44524</v>
       </c>
       <c r="B75">
-        <v>18.71568937063074</v>
+        <v>18.71569138940855</v>
       </c>
       <c r="C75">
-        <v>19.05072915486221</v>
+        <v>19.05073120977927</v>
       </c>
       <c r="D75">
-        <v>17.68265151977539</v>
+        <v>17.68265342712402</v>
       </c>
       <c r="E75">
-        <v>17.68265151977539</v>
+        <v>17.68265342712402</v>
       </c>
       <c r="F75">
         <v>321196</v>
@@ -2982,16 +2982,16 @@
         <v>44525</v>
       </c>
       <c r="B76">
-        <v>17.69195887291572</v>
+        <v>17.6919607812683</v>
       </c>
       <c r="C76">
-        <v>18.32481080944737</v>
+        <v>18.32481278606286</v>
       </c>
       <c r="D76">
-        <v>17.36622466119455</v>
+        <v>17.36622653441163</v>
       </c>
       <c r="E76">
-        <v>17.68265151977539</v>
+        <v>17.68265342712402</v>
       </c>
       <c r="F76">
         <v>214365</v>
@@ -3008,16 +3008,16 @@
         <v>44526</v>
       </c>
       <c r="B77">
-        <v>17.22662504786977</v>
+        <v>17.22662690602887</v>
       </c>
       <c r="C77">
-        <v>18.56678418479566</v>
+        <v>18.56678618751173</v>
       </c>
       <c r="D77">
-        <v>17.17078449028785</v>
+        <v>17.17078634242368</v>
       </c>
       <c r="E77">
-        <v>17.68265151977539</v>
+        <v>17.68265342712402</v>
       </c>
       <c r="F77">
         <v>408367</v>
@@ -3034,16 +3034,16 @@
         <v>44529</v>
       </c>
       <c r="B78">
-        <v>18.32481313645734</v>
+        <v>18.32481119056639</v>
       </c>
       <c r="C78">
-        <v>18.92043929732441</v>
+        <v>18.92043728818459</v>
       </c>
       <c r="D78">
-        <v>17.73849432991251</v>
+        <v>17.73849244628208</v>
       </c>
       <c r="E78">
-        <v>17.96185302734375</v>
+        <v>17.96185111999512</v>
       </c>
       <c r="F78">
         <v>405959</v>
@@ -3060,16 +3060,16 @@
         <v>44530</v>
       </c>
       <c r="B79">
-        <v>18.22243783992314</v>
+        <v>18.22243893704082</v>
       </c>
       <c r="C79">
-        <v>18.6970790387517</v>
+        <v>18.69708016444608</v>
       </c>
       <c r="D79">
-        <v>15.83993339538574</v>
+        <v>15.83993434906006</v>
       </c>
       <c r="E79">
-        <v>15.83993339538574</v>
+        <v>15.83993434906006</v>
       </c>
       <c r="F79">
         <v>2151877</v>
@@ -3086,16 +3086,16 @@
         <v>44531</v>
       </c>
       <c r="B80">
-        <v>16.02606753932971</v>
+        <v>16.02606553171713</v>
       </c>
       <c r="C80">
-        <v>16.21220038049977</v>
+        <v>16.21219834957001</v>
       </c>
       <c r="D80">
-        <v>14.09028296408974</v>
+        <v>14.09028119897617</v>
       </c>
       <c r="E80">
-        <v>15.22569561004639</v>
+        <v>15.22569370269775</v>
       </c>
       <c r="F80">
         <v>970912</v>
@@ -3138,16 +3138,16 @@
         <v>44533</v>
       </c>
       <c r="B82">
-        <v>16.33318955726861</v>
+        <v>16.33318777008396</v>
       </c>
       <c r="C82">
-        <v>17.49652164458859</v>
+        <v>17.49651973011164</v>
       </c>
       <c r="D82">
-        <v>16.00745529076519</v>
+        <v>16.00745353922252</v>
       </c>
       <c r="E82">
-        <v>17.43137550354004</v>
+        <v>17.43137359619141</v>
       </c>
       <c r="F82">
         <v>336444</v>
@@ -3164,16 +3164,16 @@
         <v>44536</v>
       </c>
       <c r="B83">
-        <v>17.58958907285757</v>
+        <v>17.58958704193427</v>
       </c>
       <c r="C83">
-        <v>17.99908243255788</v>
+        <v>17.9990803543538</v>
       </c>
       <c r="D83">
-        <v>16.51932334899902</v>
+        <v>16.51932144165039</v>
       </c>
       <c r="E83">
-        <v>16.51932334899902</v>
+        <v>16.51932144165039</v>
       </c>
       <c r="F83">
         <v>156987</v>
@@ -3216,16 +3216,16 @@
         <v>44538</v>
       </c>
       <c r="B85">
-        <v>17.58958779222353</v>
+        <v>17.58958587981562</v>
       </c>
       <c r="C85">
-        <v>18.18521396825031</v>
+        <v>18.18521199108363</v>
       </c>
       <c r="D85">
-        <v>17.12425389624276</v>
+        <v>17.12425203442775</v>
       </c>
       <c r="E85">
-        <v>17.54305458068848</v>
+        <v>17.54305267333984</v>
       </c>
       <c r="F85">
         <v>340556</v>
@@ -3268,16 +3268,16 @@
         <v>44540</v>
       </c>
       <c r="B87">
-        <v>18.14798380809533</v>
+        <v>18.14798572330105</v>
       </c>
       <c r="C87">
-        <v>18.22243729232851</v>
+        <v>18.22243921539151</v>
       </c>
       <c r="D87">
-        <v>17.32899904279037</v>
+        <v>17.32900087156642</v>
       </c>
       <c r="E87">
-        <v>18.07353210449219</v>
+        <v>18.07353401184082</v>
       </c>
       <c r="F87">
         <v>576188</v>
@@ -3294,16 +3294,16 @@
         <v>44543</v>
       </c>
       <c r="B88">
-        <v>18.55748018458239</v>
+        <v>18.5574782411726</v>
       </c>
       <c r="C88">
-        <v>19.00419938405998</v>
+        <v>19.00419739386805</v>
       </c>
       <c r="D88">
-        <v>18.213134765625</v>
+        <v>18.21313285827637</v>
       </c>
       <c r="E88">
-        <v>18.213134765625</v>
+        <v>18.21313285827637</v>
       </c>
       <c r="F88">
         <v>145651</v>
@@ -3372,16 +3372,16 @@
         <v>44546</v>
       </c>
       <c r="B91">
-        <v>18.89251864833738</v>
+        <v>18.89251671624286</v>
       </c>
       <c r="C91">
-        <v>18.939051857785</v>
+        <v>18.93904992093163</v>
       </c>
       <c r="D91">
-        <v>18.21313343427611</v>
+        <v>18.21313157166076</v>
       </c>
       <c r="E91">
-        <v>18.65054702758789</v>
+        <v>18.65054512023926</v>
       </c>
       <c r="F91">
         <v>246966</v>
@@ -3398,16 +3398,16 @@
         <v>44547</v>
       </c>
       <c r="B92">
-        <v>18.79014566647436</v>
+        <v>18.79014365449082</v>
       </c>
       <c r="C92">
-        <v>18.79014566647436</v>
+        <v>18.79014365449082</v>
       </c>
       <c r="D92">
-        <v>17.68265416661112</v>
+        <v>17.68265227321392</v>
       </c>
       <c r="E92">
-        <v>17.81294822692871</v>
+        <v>17.81294631958008</v>
       </c>
       <c r="F92">
         <v>2915948</v>
@@ -3424,16 +3424,16 @@
         <v>44550</v>
       </c>
       <c r="B93">
-        <v>17.70126418471959</v>
+        <v>17.70126604990048</v>
       </c>
       <c r="C93">
-        <v>19.4509165633404</v>
+        <v>19.45091861288203</v>
       </c>
       <c r="D93">
-        <v>17.35691883304938</v>
+        <v>17.35692066194662</v>
       </c>
       <c r="E93">
-        <v>18.1014518737793</v>
+        <v>18.10145378112793</v>
       </c>
       <c r="F93">
         <v>216170</v>
@@ -3476,16 +3476,16 @@
         <v>44552</v>
       </c>
       <c r="B95">
-        <v>17.78502489843602</v>
+        <v>17.78502682188897</v>
       </c>
       <c r="C95">
-        <v>17.90600980287227</v>
+        <v>17.90601173940974</v>
       </c>
       <c r="D95">
-        <v>17.12425091672661</v>
+        <v>17.12425276871676</v>
       </c>
       <c r="E95">
-        <v>17.63611793518066</v>
+        <v>17.6361198425293</v>
       </c>
       <c r="F95">
         <v>102618</v>
@@ -3502,16 +3502,16 @@
         <v>44553</v>
       </c>
       <c r="B96">
-        <v>17.5802797581764</v>
+        <v>17.58027777960342</v>
       </c>
       <c r="C96">
-        <v>17.58958711237579</v>
+        <v>17.58958513275532</v>
       </c>
       <c r="D96">
-        <v>16.94742774963379</v>
+        <v>16.94742584228516</v>
       </c>
       <c r="E96">
-        <v>16.94742774963379</v>
+        <v>16.94742584228516</v>
       </c>
       <c r="F96">
         <v>106931</v>
@@ -3528,16 +3528,16 @@
         <v>44557</v>
       </c>
       <c r="B97">
-        <v>17.30107890207591</v>
+        <v>17.30108076336785</v>
       </c>
       <c r="C97">
-        <v>17.96185113156695</v>
+        <v>17.96185306394636</v>
       </c>
       <c r="D97">
-        <v>16.99395939005008</v>
+        <v>16.99396121830135</v>
       </c>
       <c r="E97">
-        <v>17.72918510437012</v>
+        <v>17.72918701171875</v>
       </c>
       <c r="F97">
         <v>226302</v>
@@ -3554,16 +3554,16 @@
         <v>44558</v>
       </c>
       <c r="B98">
-        <v>18.04561158279782</v>
+        <v>18.04561352929734</v>
       </c>
       <c r="C98">
-        <v>18.04561158279782</v>
+        <v>18.04561352929734</v>
       </c>
       <c r="D98">
-        <v>17.59889068340251</v>
+        <v>17.59889258171624</v>
       </c>
       <c r="E98">
-        <v>17.68265151977539</v>
+        <v>17.68265342712402</v>
       </c>
       <c r="F98">
         <v>132511</v>
@@ -25490,6 +25490,58 @@
         <v>0</v>
       </c>
       <c r="H941">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942" spans="1:8">
+      <c r="A942" s="2">
+        <v>45796</v>
+      </c>
+      <c r="B942">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="C942">
+        <v>1.519999980926514</v>
+      </c>
+      <c r="D942">
+        <v>1.360000014305115</v>
+      </c>
+      <c r="E942">
+        <v>1.370000004768372</v>
+      </c>
+      <c r="F942">
+        <v>1786600</v>
+      </c>
+      <c r="G942">
+        <v>0</v>
+      </c>
+      <c r="H942">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943" spans="1:8">
+      <c r="A943" s="2">
+        <v>45797</v>
+      </c>
+      <c r="B943">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="C943">
+        <v>1.490000009536743</v>
+      </c>
+      <c r="D943">
+        <v>1.379999995231628</v>
+      </c>
+      <c r="E943">
+        <v>1.450000047683716</v>
+      </c>
+      <c r="F943">
+        <v>1451800</v>
+      </c>
+      <c r="G943">
+        <v>0</v>
+      </c>
+      <c r="H943">
         <v>0</v>
       </c>
     </row>
@@ -25543,34 +25595,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C2">
-        <v>12.00594461276889</v>
+        <v>11.98341606655449</v>
       </c>
       <c r="D2">
-        <v>14.97022280463528</v>
+        <v>14.96442442306131</v>
       </c>
       <c r="E2">
         <v>1.940000057220459</v>
       </c>
       <c r="F2">
-        <v>6.91879262266113</v>
+        <v>6.928689948524338</v>
       </c>
       <c r="G2">
         <v>1.090000033378601</v>
       </c>
       <c r="H2">
-        <v>2.809999942779541</v>
+        <v>2.787499964237213</v>
       </c>
       <c r="I2">
-        <v>16.97002393965385</v>
+        <v>16.96749532792336</v>
       </c>
       <c r="J2">
-        <v>14.1600239968743</v>
+        <v>14.17999536368614</v>
       </c>
       <c r="K2">
-        <v>25.75152610846801</v>
+        <v>25.75152811822949</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -25578,34 +25630,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C3">
-        <v>12.25973839278623</v>
+        <v>12.23690455196897</v>
       </c>
       <c r="D3">
-        <v>15.16253042228637</v>
+        <v>15.15870189269021</v>
       </c>
       <c r="E3">
         <v>1.909999966621399</v>
       </c>
       <c r="F3">
-        <v>7.053451713189458</v>
+        <v>7.063338553762759</v>
       </c>
       <c r="G3">
         <v>1.120000004768372</v>
       </c>
       <c r="H3">
-        <v>2.930000066757202</v>
+        <v>2.900000095367432</v>
       </c>
       <c r="I3">
-        <v>17.31390423445583</v>
+        <v>17.31203503598979</v>
       </c>
       <c r="J3">
-        <v>14.38390416769863</v>
+        <v>14.41203494062236</v>
       </c>
       <c r="K3">
-        <v>25.96557921557338</v>
+        <v>25.96558124204051</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -25613,34 +25665,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C4">
-        <v>11.68765643950244</v>
+        <v>11.66575058616179</v>
       </c>
       <c r="D4">
-        <v>14.51585154847734</v>
+        <v>14.49639345972558</v>
       </c>
       <c r="E4">
         <v>1.769999980926514</v>
       </c>
       <c r="F4">
-        <v>6.750994093701371</v>
+        <v>6.760534846121683</v>
       </c>
       <c r="G4">
         <v>1.070000052452087</v>
       </c>
       <c r="H4">
-        <v>2.700000047683716</v>
+        <v>2.632500112056732</v>
       </c>
       <c r="I4">
-        <v>16.57570139738468</v>
+        <v>16.57331844840521</v>
       </c>
       <c r="J4">
-        <v>13.87570134970097</v>
+        <v>13.94081833634848</v>
       </c>
       <c r="K4">
-        <v>24.43928718566895</v>
+        <v>24.43928909301758</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -25648,34 +25700,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C5">
-        <v>11.95410593228137</v>
+        <v>11.93171929452576</v>
       </c>
       <c r="D5">
-        <v>14.89433574676514</v>
+        <v>14.88852882385254</v>
       </c>
       <c r="E5">
         <v>1.929999947547913</v>
       </c>
       <c r="F5">
-        <v>6.900791165046855</v>
+        <v>6.910535794600094</v>
       </c>
       <c r="G5">
         <v>1.070000052452087</v>
       </c>
       <c r="H5">
-        <v>2.804999947547913</v>
+        <v>2.737500011920929</v>
       </c>
       <c r="I5">
-        <v>16.9686861038208</v>
+        <v>16.96720504760742</v>
       </c>
       <c r="J5">
-        <v>14.16368615627289</v>
+        <v>14.22970503568649</v>
       </c>
       <c r="K5">
-        <v>25.25827407836914</v>
+        <v>25.25827598571777</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -25683,31 +25735,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C6">
-        <v>1056945.720212766</v>
+        <v>1058139.466029724</v>
       </c>
       <c r="D6">
-        <v>373350</v>
+        <v>376250</v>
       </c>
       <c r="E6">
         <v>40826</v>
       </c>
       <c r="F6">
-        <v>1489489.285955241</v>
+        <v>1488150.867634915</v>
       </c>
       <c r="G6">
         <v>8024</v>
       </c>
       <c r="H6">
-        <v>153049.75</v>
+        <v>153225.25</v>
       </c>
       <c r="I6">
-        <v>1472500</v>
+        <v>1475500</v>
       </c>
       <c r="J6">
-        <v>1319450.25</v>
+        <v>1322274.75</v>
       </c>
       <c r="K6">
         <v>14723600</v>
@@ -25718,10 +25770,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C7">
-        <v>0.0008694914893617021</v>
+        <v>0.0008676454352441614</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -25730,7 +25782,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.01385175398315817</v>
+        <v>0.0138370838440283</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -25753,7 +25805,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C8">
         <v>0</v>
